--- a/biology/Virologie/Comovirinae/Comovirinae.xlsx
+++ b/biology/Virologie/Comovirinae/Comovirinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Comovirinae sont une sous-famille de virus de la famille des Secoviridae, qui comprend 3 genres et 62 espèces acceptées par l'ICTV.
@@ -513,9 +525,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virions sont des particules non enveloppées, de 28 à 30 nm de diamètre, ont une capside icosaédrique de type T=pseudo3. Les ARN génomiques sont encapsidés séparément dans deux types de particules de taille similaire[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virions sont des particules non enveloppées, de 28 à 30 nm de diamètre, ont une capside icosaédrique de type T=pseudo3. Les ARN génomiques sont encapsidés séparément dans deux types de particules de taille similaire.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Génome</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le génome, bipartite, est composé de deux segments d'ARN à simple brin linéaire, ARN1 et ARN2, de 6 à 8 kb et 4 à 7 kb respectivement.
-Chaque segment génomique a une protéine VPg liée l'extrémité 5' et une queue poly(A) à l'extrémité 3'[3].
+Chaque segment génomique a une protéine VPg liée l'extrémité 5' et une queue poly(A) à l'extrémité 3'.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (5 février 2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (5 février 2021) :
 genre Comovirus
 genre Fabavirus
 genre Nepovirus</t>
